--- a/LOGS/2f3931a1-9ead-4a4f-bd4c-899c3365c954/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/2f3931a1-9ead-4a4f-bd4c-899c3365c954/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="104">
   <si>
     <t>rows</t>
   </si>
@@ -172,6 +172,33 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>Current tax expense Current year</t>
+  </si>
+  <si>
+    <t>Deferred tax expense Origination and reversal of temporary differences</t>
+  </si>
+  <si>
+    <t>Deferred tax expense Total income tax expense in profit or loss</t>
+  </si>
+  <si>
+    <t>Reconciliation of tax expense and accounting profit Profit before tax</t>
+  </si>
+  <si>
+    <t>Reconciliation of tax expense and accounting profit Income tax using the company tax rate 28% (2022: 28%)</t>
+  </si>
+  <si>
+    <t>Reconciliation of tax expense and accounting profit Tax effect of Non-deductible expenses</t>
+  </si>
+  <si>
+    <t>Reconciliation of tax expense and accounting profit Prior period adjustments</t>
+  </si>
+  <si>
+    <t>Impact of tax rate change Impact of removal of tax depreciation on buildings</t>
+  </si>
+  <si>
+    <t>Impact of tax rate change Total income tax expense in profit or loss</t>
   </si>
   <si>
     <t>None Contract Liabilities - service contracts</t>
@@ -2168,7 +2195,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C2">
         <v>2021</v>
@@ -2185,7 +2212,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <v>2021</v>
@@ -2202,7 +2229,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C4">
         <v>2021</v>
@@ -2219,7 +2246,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C5">
         <v>2021</v>
@@ -2236,7 +2263,7 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C6">
         <v>2021</v>
@@ -2253,7 +2280,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <v>2021</v>
@@ -2267,10 +2294,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>2021</v>
@@ -2287,7 +2314,7 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C9">
         <v>2021</v>
@@ -2304,7 +2331,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -2321,7 +2348,7 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -2338,7 +2365,7 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -2355,7 +2382,7 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -2372,7 +2399,7 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -2389,7 +2416,7 @@
         <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -2403,10 +2430,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C16">
         <v>2022</v>
@@ -2423,7 +2450,7 @@
         <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C17">
         <v>2022</v>
@@ -2440,7 +2467,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C18">
         <v>2022</v>
@@ -2457,7 +2484,7 @@
         <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <v>2022</v>
@@ -2474,7 +2501,7 @@
         <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C20">
         <v>2022</v>
@@ -2491,7 +2518,7 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C21">
         <v>2022</v>
@@ -2508,7 +2535,7 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C22">
         <v>2022</v>
@@ -2525,7 +2552,7 @@
         <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C23">
         <v>2022</v>
@@ -2539,10 +2566,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -2559,7 +2586,7 @@
         <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C25">
         <v>2022</v>
@@ -2576,7 +2603,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C26">
         <v>2022</v>
@@ -2593,7 +2620,7 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C27">
         <v>2022</v>
@@ -2610,7 +2637,7 @@
         <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C28">
         <v>2022</v>
@@ -2627,7 +2654,7 @@
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C29">
         <v>2022</v>
@@ -2644,7 +2671,7 @@
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C30">
         <v>2022</v>
@@ -2661,7 +2688,7 @@
         <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C31">
         <v>2022</v>
@@ -2675,10 +2702,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C32">
         <v>2022</v>
@@ -2695,7 +2722,7 @@
         <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C33">
         <v>2022</v>
@@ -2739,7 +2766,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2748,12 +2775,12 @@
         <v>2588</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2762,12 +2789,12 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2776,12 +2803,12 @@
         <v>2588</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -2790,12 +2817,12 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -2804,12 +2831,12 @@
         <v>2588</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -2818,7 +2845,7 @@
         <v>2588</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2853,7 +2880,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2862,12 +2889,12 @@
         <v>84497</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2876,12 +2903,12 @@
         <v>2641</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2890,12 +2917,12 @@
         <v>87138</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -2904,12 +2931,12 @@
         <v>58187</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -2918,12 +2945,12 @@
         <v>3526</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -2932,7 +2959,7 @@
         <v>61713</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2979,7 +3006,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2988,12 +3015,12 @@
         <v>248</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -3002,12 +3029,12 @@
         <v>14456</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -3016,12 +3043,12 @@
         <v>-462</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -3030,12 +3057,12 @@
         <v>14242</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -3044,12 +3071,12 @@
         <v>-20</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -3058,12 +3085,12 @@
         <v>11726</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -3072,12 +3099,12 @@
         <v>-458</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -3086,7 +3113,7 @@
         <v>11248</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3121,7 +3148,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3130,12 +3157,12 @@
         <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -3144,12 +3171,12 @@
         <v>1262</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -3158,12 +3185,12 @@
         <v>1205</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -3172,12 +3199,12 @@
         <v>686</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -3186,12 +3213,12 @@
         <v>3215</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -3200,12 +3227,12 @@
         <v>1792</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -3214,12 +3241,12 @@
         <v>320</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -3228,12 +3255,12 @@
         <v>323</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -3242,12 +3269,12 @@
         <v>422</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -3256,7 +3283,7 @@
         <v>2857</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3291,7 +3318,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3300,12 +3327,12 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -3314,12 +3341,12 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -3328,12 +3355,12 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -3342,7 +3369,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3389,7 +3416,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3398,12 +3425,12 @@
         <v>87831</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -3412,12 +3439,12 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -3426,12 +3453,12 @@
         <v>87831</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -3440,12 +3467,12 @@
         <v>17722</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -3454,12 +3481,12 @@
         <v>17722</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -3468,12 +3495,12 @@
         <v>105553</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -3482,12 +3509,12 @@
         <v>20333</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -3496,12 +3523,12 @@
         <v>30000</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -3510,12 +3537,12 @@
         <v>50333</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -3524,12 +3551,12 @@
         <v>22553</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -3538,12 +3565,12 @@
         <v>22553</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -3552,7 +3579,7 @@
         <v>72886</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3587,7 +3614,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3596,12 +3623,12 @@
         <v>8523</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -3610,12 +3637,12 @@
         <v>8523</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -3624,12 +3651,12 @@
         <v>10495</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -3638,7 +3665,7 @@
         <v>10495</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -4080,7 +4107,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -4089,15 +4116,15 @@
         <v>2207</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -4106,15 +4133,15 @@
         <v>1924</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -4123,15 +4150,15 @@
         <v>-1390</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -4140,15 +4167,15 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -4157,7 +4184,7 @@
         <v>2741</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4165,7 +4192,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -4174,15 +4201,15 @@
         <v>2628</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -4191,15 +4218,15 @@
         <v>2109</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -4208,15 +4235,15 @@
         <v>-1675</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -4225,15 +4252,15 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -4242,7 +4269,7 @@
         <v>3062</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4259,12 +4286,12 @@
         <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -4276,12 +4303,12 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
@@ -4293,12 +4320,12 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -4310,12 +4337,12 @@
         <v>-43</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -4327,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4344,12 +4371,12 @@
         <v>4878</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -4361,12 +4388,12 @@
         <v>4033</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -4378,12 +4405,12 @@
         <v>-3065</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -4395,12 +4422,12 @@
         <v>-43</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -4412,7 +4439,7 @@
         <v>5803</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4471,7 +4498,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -4480,12 +4507,12 @@
         <v>1998</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -4494,12 +4521,12 @@
         <v>227</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -4508,12 +4535,12 @@
         <v>2225</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -4522,12 +4549,12 @@
         <v>1630</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -4536,12 +4563,12 @@
         <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -4550,7 +4577,7 @@
         <v>1772</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4585,7 +4612,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -4594,12 +4621,12 @@
         <v>3221</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -4608,12 +4635,12 @@
         <v>148</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -4622,12 +4649,12 @@
         <v>3369</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -4636,12 +4663,12 @@
         <v>2915</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -4650,12 +4677,12 @@
         <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -4664,7 +4691,7 @@
         <v>3053</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -5640,12 +5667,282 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>2176</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>129</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>2305</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>2023</v>
+      </c>
+      <c r="D5">
+        <v>5580</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6">
+        <v>1562</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7">
+        <v>2023</v>
+      </c>
+      <c r="D7">
+        <v>711</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>2023</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9">
+        <v>2023</v>
+      </c>
+      <c r="D9">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10">
+        <v>2023</v>
+      </c>
+      <c r="D10">
+        <v>2305</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>2022</v>
+      </c>
+      <c r="D11">
+        <v>929</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>2022</v>
+      </c>
+      <c r="D12">
+        <v>371</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13">
+        <v>2022</v>
+      </c>
+      <c r="D13">
+        <v>1300</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14">
+        <v>2022</v>
+      </c>
+      <c r="D14">
+        <v>1287</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15">
+        <v>2022</v>
+      </c>
+      <c r="D15">
+        <v>360</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16">
+        <v>2022</v>
+      </c>
+      <c r="D16">
+        <v>804</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>2022</v>
+      </c>
+      <c r="D17">
+        <v>128</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18">
+        <v>2022</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19">
+        <v>2022</v>
+      </c>
+      <c r="D19">
+        <v>1300</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>